--- a/ebs_with_tracing/forms/app/covid_rdt_followup.xlsx
+++ b/ebs_with_tracing/forms/app/covid_rdt_followup.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\ebs_with_tracing\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="74">
   <si>
     <t>type</t>
   </si>
@@ -43,9 +43,6 @@
     <t>label::en</t>
   </si>
   <si>
-    <t>label::fr</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>external_id</t>
   </si>
   <si>
-    <t>Muso ID</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -256,28 +250,16 @@
     <t>data</t>
   </si>
   <si>
-    <t>Suivi  après un résultat positif du TDR</t>
-  </si>
-  <si>
-    <t>Avez-vous appelé le patient et reçu des nouvelles sur sa situation?</t>
-  </si>
-  <si>
-    <t>Ce champs est obligatoire</t>
-  </si>
-  <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
     <t>Vous devez recevoir une mise à jour sur la situation du patient pour accomplir cette tâche</t>
+  </si>
+  <si>
+    <t>LGH ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -408,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -498,9 +480,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -580,6 +559,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -848,35 +830,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK18"/>
+  <dimension ref="A1:AMI18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="41.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="24.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="39" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="68.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.6640625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="24.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="1" customWidth="1"/>
-    <col min="20" max="30" width="10.5" style="1" customWidth="1"/>
-    <col min="31" max="1018" width="10.5" customWidth="1"/>
-    <col min="1019" max="1026" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="39" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="68.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="24.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="1" customWidth="1"/>
+    <col min="18" max="28" width="10.5" style="1" customWidth="1"/>
+    <col min="29" max="1016" width="10.5" customWidth="1"/>
+    <col min="1017" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28 1025:1025" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1023" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -895,452 +877,396 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AMI1"/>
+    </row>
+    <row r="2" spans="1:1023" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AMK1"/>
-    </row>
-    <row r="2" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="U2" s="7" t="s">
+      <c r="S2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AMI2"/>
+    </row>
+    <row r="3" spans="1:1023" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AMK2"/>
-    </row>
-    <row r="3" spans="1:28 1025:1025" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="N3" s="8"/>
+      <c r="AMI3"/>
+    </row>
+    <row r="4" spans="1:1023" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="AMK3"/>
-    </row>
-    <row r="4" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="AMK4"/>
-    </row>
-    <row r="5" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="9"/>
+      <c r="AMI4"/>
+    </row>
+    <row r="5" spans="1:1023" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="AMK5"/>
-    </row>
-    <row r="6" spans="1:28 1025:1025" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMI5"/>
+    </row>
+    <row r="6" spans="1:1023" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="AMK6"/>
-    </row>
-    <row r="7" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMI6"/>
+    </row>
+    <row r="7" spans="1:1023" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="AMK7"/>
-    </row>
-    <row r="8" spans="1:28 1025:1025" x14ac:dyDescent="0.2">
+      <c r="AMI7"/>
+    </row>
+    <row r="8" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1023" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28 1025:1025" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="9"/>
-      <c r="AMK9"/>
-    </row>
-    <row r="10" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="9"/>
+      <c r="AMI9"/>
+    </row>
+    <row r="10" spans="1:1023" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="AMK10"/>
-    </row>
-    <row r="11" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="9"/>
+      <c r="AMI10"/>
+    </row>
+    <row r="11" spans="1:1023" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="AMK11"/>
-    </row>
-    <row r="12" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="9"/>
+      <c r="AMI11"/>
+    </row>
+    <row r="12" spans="1:1023" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>44</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="AMK12"/>
-    </row>
-    <row r="13" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="9"/>
+      <c r="AMI12"/>
+    </row>
+    <row r="13" spans="1:1023" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="AMK13"/>
-    </row>
-    <row r="14" spans="1:28 1025:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMI13"/>
+    </row>
+    <row r="14" spans="1:1023" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="AMK14"/>
-    </row>
-    <row r="15" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMI14"/>
+    </row>
+    <row r="15" spans="1:1023" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="N15" s="19"/>
-      <c r="O15" s="17" t="s">
+      <c r="S15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AMI15"/>
+    </row>
+    <row r="16" spans="1:1023" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="U15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AMK15"/>
-    </row>
-    <row r="16" spans="1:28 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1348,63 +1274,56 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="22"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="T16" s="22"/>
-      <c r="U16" s="22" t="s">
-        <v>25</v>
-      </c>
+      <c r="U16" s="22"/>
       <c r="V16" s="22"/>
       <c r="W16" s="22"/>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
       <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AMK16"/>
-    </row>
-    <row r="17" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMI16"/>
+    </row>
+    <row r="17" spans="1:1023" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="D17" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="E17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="I17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="J17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="32"/>
-      <c r="I17" s="24"/>
-      <c r="K17" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AMK17"/>
-    </row>
-    <row r="18" spans="1:13 1025:1025" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AMI17"/>
+    </row>
+    <row r="18" spans="1:1023" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="32"/>
-      <c r="I18" s="24"/>
-      <c r="AMK18"/>
+      <c r="G18" s="24"/>
+      <c r="AMI18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1414,25 +1333,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="76.1640625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="103.6640625" style="27" customWidth="1"/>
-    <col min="5" max="1022" width="10.5" customWidth="1"/>
-    <col min="1023" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="76.125" style="26" customWidth="1"/>
+    <col min="4" max="1021" width="10.5" customWidth="1"/>
+    <col min="1022" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="29" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -1440,45 +1358,36 @@
       <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="C3" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
     </row>
   </sheetData>
@@ -1495,53 +1404,53 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="121.5" style="27" customWidth="1"/>
     <col min="2" max="2" width="58.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="32.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="27" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="27" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="29" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="29" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="30" t="s">
+    </row>
+    <row r="2" spans="1:6" s="27" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="27" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>71</v>
       </c>
       <c r="C2" s="23" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-03-27 17-58</v>
+        <v>2020-08-19 21-42</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="31"/>
     </row>
